--- a/BackTest/2020-01-23 BackTest LINK.xlsx
+++ b/BackTest/2020-01-23 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N365"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-192.8148017202209</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-217.7070017202209</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-352.7070017202209</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-386.5063017202209</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>66.02819827977908</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-24.77080172022093</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-417.894201720221</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-1090.341601720221</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-1090.341601720221</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1090.341601720221</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-1416.485301720221</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,22 +1045,19 @@
         <v>-2350.721501720221</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2978</v>
       </c>
       <c r="J20" t="n">
         <v>2978</v>
       </c>
-      <c r="K20" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1146,22 +1084,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>2978</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1186,26 +1121,23 @@
         <v>-2481.649801720221</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2976</v>
       </c>
       <c r="J22" t="n">
-        <v>2976</v>
-      </c>
-      <c r="K22" t="n">
         <v>2978</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1230,26 +1162,23 @@
         <v>-2145.393001720221</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2963</v>
       </c>
       <c r="J23" t="n">
-        <v>2963</v>
-      </c>
-      <c r="K23" t="n">
         <v>2978</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1274,24 +1203,23 @@
         <v>-2144.733001720221</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>2993</v>
+      </c>
+      <c r="J24" t="n">
         <v>2978</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1318,22 +1246,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>2978</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,22 +1285,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>2978</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1400,24 +1322,21 @@
         <v>-1834.339901720221</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>2978</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1442,24 +1361,21 @@
         <v>-1820.803401720221</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>2978</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1484,24 +1400,21 @@
         <v>-3865.017401720221</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>2978</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1526,24 +1439,21 @@
         <v>-3878.554001720221</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>2978</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1570,22 +1480,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>2978</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,22 +1519,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>2978</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1654,22 +1558,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>2978</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1696,22 +1597,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>2978</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1738,22 +1636,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>2978</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1780,22 +1675,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>2978</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1822,22 +1714,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>2978</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1864,22 +1753,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>2978</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1906,22 +1792,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>2978</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1946,24 +1829,21 @@
         <v>-4066.951501720221</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>2978</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1.017834116856951</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1988,24 +1868,15 @@
         <v>-4066.951501720221</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2032,22 +1903,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2072,24 +1934,15 @@
         <v>-4226.334201720221</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2116,22 +1969,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2158,22 +2002,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2200,22 +2035,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2978</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1.022535258562794</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2240,18 +2066,15 @@
         <v>-5575.521501720221</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2278,16 +2101,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2314,16 +2134,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2350,16 +2167,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2386,16 +2200,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2422,16 +2233,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2458,16 +2266,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2492,18 +2297,15 @@
         <v>-9907.289201720219</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2530,16 +2332,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2566,16 +2365,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2602,16 +2398,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2638,16 +2431,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2674,16 +2464,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2710,16 +2497,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2744,18 +2528,15 @@
         <v>-13074.00780172022</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2782,16 +2563,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2818,16 +2596,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2854,16 +2629,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2890,16 +2662,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2926,16 +2695,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2962,16 +2728,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2996,18 +2759,19 @@
         <v>-14976.18868921199</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>3026</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3026</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3034,16 +2798,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3026</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3068,18 +2835,21 @@
         <v>-16024.34318921199</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3026</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3106,16 +2876,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3142,16 +2909,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3178,16 +2942,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3214,16 +2975,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3248,18 +3006,15 @@
         <v>-16557.19258921199</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3284,18 +3039,15 @@
         <v>-16553.99258921199</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3320,18 +3072,15 @@
         <v>-16603.99258921199</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3358,16 +3107,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3394,16 +3140,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3430,16 +3173,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3464,18 +3204,15 @@
         <v>-15053.06188921199</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3502,16 +3239,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3538,16 +3272,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3572,18 +3303,15 @@
         <v>-17161.69120360047</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3608,18 +3336,15 @@
         <v>-17213.69120360047</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3646,16 +3371,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3682,16 +3404,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3716,18 +3435,15 @@
         <v>-17988.46660360047</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3752,18 +3468,15 @@
         <v>-17880.63540360047</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3790,16 +3503,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3826,16 +3536,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3862,16 +3569,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3898,16 +3602,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3934,16 +3635,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3968,18 +3666,15 @@
         <v>-17829.77730360047</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4006,16 +3701,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4040,18 +3732,15 @@
         <v>-19003.01760360047</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4078,16 +3767,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4114,16 +3800,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4150,16 +3833,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4186,16 +3866,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4222,16 +3899,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4258,16 +3932,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4294,16 +3965,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4328,18 +3996,15 @@
         <v>-18228.93481253719</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4366,16 +4031,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4402,16 +4064,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4438,16 +4097,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4472,18 +4128,15 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4510,16 +4163,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4546,16 +4196,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4582,16 +4229,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4618,16 +4262,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4654,16 +4295,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4690,16 +4328,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4726,16 +4361,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4762,16 +4394,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4798,16 +4427,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4834,16 +4460,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4870,16 +4493,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4906,16 +4526,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4942,16 +4559,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4978,16 +4592,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5014,16 +4625,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5050,16 +4658,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5086,16 +4691,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5122,16 +4724,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5158,16 +4757,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5194,16 +4790,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5230,16 +4823,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5266,16 +4856,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5302,16 +4889,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5338,16 +4922,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5374,16 +4955,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5410,16 +4988,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5444,24 +5019,15 @@
         <v>-19890.98676789684</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5486,24 +5052,15 @@
         <v>-19824.79696789684</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5528,24 +5085,15 @@
         <v>-19824.79696789684</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5570,24 +5118,15 @@
         <v>-19323.56496789684</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5612,24 +5151,15 @@
         <v>-21243.75826789684</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5654,24 +5184,15 @@
         <v>-20402.89406789684</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5698,20 +5219,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5738,20 +5252,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5778,20 +5285,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5818,20 +5318,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5858,20 +5351,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5898,20 +5384,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5938,20 +5417,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5978,20 +5450,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6018,20 +5483,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6058,20 +5516,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6098,20 +5549,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6138,20 +5582,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6178,20 +5615,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6218,20 +5648,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6256,24 +5679,15 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6300,20 +5714,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6338,24 +5745,15 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6382,20 +5780,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6422,20 +5813,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6462,20 +5846,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6502,20 +5879,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6542,20 +5912,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6582,20 +5945,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6622,20 +5978,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6662,20 +6011,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6702,20 +6044,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6742,20 +6077,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6782,20 +6110,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6822,20 +6143,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6862,20 +6176,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6902,20 +6209,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6942,20 +6242,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6982,20 +6275,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7022,20 +6308,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7062,20 +6341,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7102,20 +6374,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7142,20 +6407,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7182,20 +6440,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7222,20 +6473,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7262,20 +6506,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7302,20 +6539,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7342,20 +6572,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7382,20 +6605,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7422,20 +6638,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7462,20 +6671,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7502,20 +6704,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7542,20 +6737,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7582,20 +6770,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7622,20 +6803,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7662,20 +6836,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7702,20 +6869,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7742,20 +6902,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7782,20 +6935,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7822,20 +6968,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7862,20 +7001,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7902,20 +7034,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7942,20 +7067,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7982,20 +7100,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8022,20 +7133,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8062,20 +7166,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8102,20 +7199,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8142,20 +7232,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8180,24 +7263,15 @@
         <v>-21591.33712704014</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8224,20 +7298,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8264,20 +7331,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8302,24 +7362,15 @@
         <v>-21563.33932704014</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8344,24 +7395,15 @@
         <v>-21563.33932704014</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8386,24 +7428,15 @@
         <v>-22450.41422704014</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>3042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8428,24 +7461,15 @@
         <v>-21662.00602704014</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8470,24 +7494,15 @@
         <v>-23314.60982704014</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8512,24 +7527,15 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>3030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8554,24 +7560,15 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8596,24 +7593,15 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8638,24 +7626,15 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8680,24 +7659,15 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8722,24 +7692,15 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8764,24 +7725,15 @@
         <v>-22087.79062704014</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8806,24 +7758,15 @@
         <v>-22125.80202704014</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8848,24 +7791,15 @@
         <v>-22125.80202704014</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8890,24 +7824,15 @@
         <v>-22034.84122704014</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8932,24 +7857,15 @@
         <v>-22034.84122704014</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8974,24 +7890,15 @@
         <v>-22034.84122704014</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9016,24 +7923,15 @@
         <v>-20637.66382704014</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9060,20 +7958,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9098,24 +7989,15 @@
         <v>-20502.56462704014</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>3045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9140,24 +8022,15 @@
         <v>-20504.56462704014</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9182,24 +8055,15 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9224,24 +8088,15 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9268,20 +8123,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9306,24 +8154,15 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9348,24 +8187,15 @@
         <v>-20475.17452704014</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9392,20 +8222,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9430,24 +8253,15 @@
         <v>-21124.18632704014</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>3052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9472,24 +8286,15 @@
         <v>-21121.18632704014</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9516,20 +8321,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9556,20 +8354,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9594,22 +8385,15 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9634,24 +8418,15 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>3055</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9676,24 +8451,15 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3055</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9718,24 +8484,15 @@
         <v>-22258.59042704014</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>3055</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9760,24 +8517,15 @@
         <v>-21101.20702704014</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9804,20 +8552,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9842,24 +8583,15 @@
         <v>-19827.52922704014</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9886,20 +8618,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9926,20 +8651,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9966,20 +8684,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10006,20 +8717,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10046,20 +8750,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10084,22 +8781,15 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10124,22 +8814,15 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10164,22 +8847,15 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10204,22 +8880,15 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10244,22 +8913,15 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10284,22 +8946,15 @@
         <v>-23018.50532704014</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10324,22 +8979,15 @@
         <v>-24294.86152704014</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10364,22 +9012,15 @@
         <v>-24448.09782704014</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10406,20 +9047,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10446,20 +9080,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10484,24 +9111,15 @@
         <v>-24396.32172704013</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10528,20 +9146,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10568,20 +9179,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10608,20 +9212,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10648,20 +9245,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10688,20 +9278,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10728,20 +9311,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10768,20 +9344,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10808,20 +9377,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10848,20 +9410,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10888,20 +9443,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10928,20 +9476,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10968,20 +9509,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11008,20 +9542,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11048,20 +9575,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11088,20 +9608,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11128,20 +9641,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11168,20 +9674,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11208,20 +9707,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11248,20 +9740,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11288,20 +9773,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11328,20 +9806,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11368,20 +9839,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11408,20 +9872,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11448,20 +9905,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11488,20 +9938,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11528,20 +9971,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11568,20 +10004,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11608,20 +10037,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11648,20 +10070,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11688,20 +10103,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11728,20 +10136,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11768,20 +10169,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11808,20 +10202,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11848,20 +10235,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11888,20 +10268,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11928,20 +10301,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11968,20 +10334,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12008,20 +10367,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12048,20 +10400,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12088,20 +10433,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12128,20 +10466,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12168,20 +10499,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12208,20 +10532,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12248,20 +10565,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12288,20 +10598,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12328,20 +10631,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12368,20 +10664,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12408,20 +10697,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12448,20 +10730,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12488,20 +10763,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12528,20 +10796,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12568,20 +10829,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12608,20 +10862,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12648,20 +10895,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12688,20 +10928,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12728,20 +10961,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12768,20 +10994,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12808,20 +11027,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12848,20 +11060,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12888,20 +11093,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12928,20 +11126,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12968,20 +11159,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -13008,20 +11192,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -13048,20 +11225,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -13086,24 +11256,15 @@
         <v>-26255.18194751932</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -13130,20 +11291,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -13170,20 +11324,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13210,20 +11357,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -13250,20 +11390,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13288,24 +11421,15 @@
         <v>-26856.18194751932</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>3043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13332,20 +11456,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13370,24 +11487,15 @@
         <v>-25928.12594751932</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>3046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13414,20 +11522,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13454,20 +11555,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13494,20 +11588,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13534,20 +11621,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13574,20 +11654,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13612,24 +11685,15 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="n">
-        <v>3043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13656,20 +11720,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13696,20 +11753,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13736,20 +11786,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13774,24 +11817,15 @@
         <v>-24427.79184751932</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="n">
-        <v>3046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13816,24 +11850,15 @@
         <v>-24427.79184751932</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="n">
-        <v>3045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13858,24 +11883,15 @@
         <v>-24532.24934751932</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="n">
-        <v>3045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13900,24 +11916,15 @@
         <v>-24496.96334751932</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="n">
-        <v>3041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13942,24 +11949,15 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13984,24 +11982,15 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -14026,24 +12015,15 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
-      <c r="J348" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -14068,24 +12048,15 @@
         <v>-24633.77864751932</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
-      <c r="J349" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -14110,24 +12081,15 @@
         <v>-24692.47484751932</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -14152,24 +12114,15 @@
         <v>-24872.04434751932</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -14194,24 +12147,15 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="n">
-        <v>3036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -14236,24 +12180,15 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -14278,24 +12213,15 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
-      <c r="J354" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -14320,24 +12246,15 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -14362,24 +12279,15 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
-      <c r="J356" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -14404,24 +12312,15 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -14446,24 +12345,15 @@
         <v>-25465.42164751932</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -14490,20 +12380,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -14530,20 +12413,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -14570,20 +12446,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -14610,20 +12479,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -14648,24 +12510,15 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -14690,24 +12543,15 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14732,26 +12576,21 @@
         <v>-25618.32264751932</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="n">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="J365" t="n">
         <v>3040</v>
       </c>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LINK.xlsx
+++ b/BackTest/2020-01-23 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-192.8148017202209</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-217.7070017202209</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-352.7070017202209</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-386.5063017202209</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>66.02819827977908</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>59.74559827977907</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24.77080172022093</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-417.894201720221</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1090.341601720221</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1090.341601720221</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1090.341601720221</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1416.485301720221</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2439.052101720221</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2350.721501720221</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1047,12 +1047,8 @@
       <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>2978</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2978</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1082,17 +1078,11 @@
         <v>-2364.984401720221</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1123,17 +1113,9 @@
       <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>2976</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1164,17 +1146,9 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>2963</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1205,17 +1179,9 @@
       <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>2993</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1244,17 +1210,11 @@
         <v>-1844.733001720221</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1283,17 +1243,11 @@
         <v>-1834.339901720221</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1322,17 +1276,11 @@
         <v>-1834.339901720221</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1361,17 +1309,11 @@
         <v>-1820.803401720221</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1400,17 +1342,11 @@
         <v>-3865.017401720221</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1439,17 +1375,11 @@
         <v>-3878.554001720221</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1478,17 +1408,11 @@
         <v>-3870.925001720221</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1520,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1559,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1598,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1637,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1676,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1715,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1754,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1793,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1829,19 +1705,13 @@
         <v>-4066.951501720221</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2978</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.017834116856951</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -1868,7 +1738,7 @@
         <v>-4066.951501720221</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1934,7 +1804,7 @@
         <v>-4226.334201720221</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2033,7 +1903,7 @@
         <v>-3875.381201720221</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2066,7 +1936,7 @@
         <v>-5575.521501720221</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2099,7 +1969,7 @@
         <v>-5678.296301720221</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2132,7 +2002,7 @@
         <v>-6262.371101720221</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2165,7 +2035,7 @@
         <v>-6507.157901720221</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2264,7 +2134,7 @@
         <v>-9794.52930172022</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2297,7 +2167,7 @@
         <v>-9907.289201720219</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2330,7 +2200,7 @@
         <v>-9906.289201720219</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2363,7 +2233,7 @@
         <v>-12074.54800172022</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2396,7 +2266,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2429,7 +2299,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2462,7 +2332,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2495,7 +2365,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2528,7 +2398,7 @@
         <v>-13074.00780172022</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2561,7 +2431,7 @@
         <v>-14124.00780172022</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2594,7 +2464,7 @@
         <v>-15126.87350172022</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2627,7 +2497,7 @@
         <v>-15261.87350172022</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2660,7 +2530,7 @@
         <v>-15050.87360172022</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2693,7 +2563,7 @@
         <v>-15049.87360172022</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2726,7 +2596,7 @@
         <v>-14977.18770172022</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2761,12 +2631,8 @@
       <c r="H68" t="n">
         <v>2</v>
       </c>
-      <c r="I68" t="n">
-        <v>3026</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3026</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2796,17 +2662,11 @@
         <v>-14890.86518921199</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3026</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2835,17 +2695,11 @@
         <v>-16024.34318921199</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3026</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2874,7 +2728,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2907,7 +2761,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2940,7 +2794,7 @@
         <v>-16627.20578921199</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2973,7 +2827,7 @@
         <v>-16627.20578921199</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3006,7 +2860,7 @@
         <v>-16557.19258921199</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3039,7 +2893,7 @@
         <v>-16553.99258921199</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3072,7 +2926,7 @@
         <v>-16603.99258921199</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3105,7 +2959,7 @@
         <v>-16653.99258921199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3138,7 +2992,7 @@
         <v>-16653.99258921199</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3171,7 +3025,7 @@
         <v>-15053.26188921199</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3204,7 +3058,7 @@
         <v>-15053.06188921199</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3270,7 +3124,7 @@
         <v>-17241.60640360047</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3303,7 +3157,7 @@
         <v>-17161.69120360047</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3336,7 +3190,7 @@
         <v>-17213.69120360047</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3369,7 +3223,7 @@
         <v>-17670.69120360047</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3402,7 +3256,7 @@
         <v>-17669.69120360047</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3435,7 +3289,7 @@
         <v>-17988.46660360047</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3468,7 +3322,7 @@
         <v>-17880.63540360047</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3501,7 +3355,7 @@
         <v>-18480.63540360047</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3534,7 +3388,7 @@
         <v>-18180.63540360047</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3567,7 +3421,7 @@
         <v>-18179.63540360047</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3600,7 +3454,7 @@
         <v>-17861.77730360047</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3633,7 +3487,7 @@
         <v>-17861.77730360047</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3666,7 +3520,7 @@
         <v>-17829.77730360047</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3699,7 +3553,7 @@
         <v>-17503.01760360047</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3732,7 +3586,7 @@
         <v>-19003.01760360047</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3765,7 +3619,7 @@
         <v>-19062.61640360047</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3798,7 +3652,7 @@
         <v>-19671.19330360047</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3831,7 +3685,7 @@
         <v>-18749.1444125372</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3996,7 +3850,7 @@
         <v>-18228.93481253719</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4128,7 +3982,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -7494,11 +7348,17 @@
         <v>-23314.60982704014</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3038</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7527,11 +7387,17 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3030</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7560,11 +7426,17 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3038</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7597,7 +7469,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7630,7 +7506,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7663,7 +7543,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7696,7 +7580,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7729,7 +7617,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +7654,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7795,7 +7691,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7828,7 +7728,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7861,7 +7765,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7894,7 +7802,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7927,7 +7839,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7960,7 +7876,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7993,7 +7913,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8026,7 +7950,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8059,7 +7987,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8092,7 +8024,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8125,7 +8061,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8098,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8191,7 +8135,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8224,7 +8172,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8257,7 +8209,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8290,7 +8246,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8323,7 +8283,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8356,7 +8320,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8385,11 +8353,15 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8418,11 +8390,15 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8451,11 +8427,15 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8484,11 +8464,15 @@
         <v>-22258.59042704014</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8521,7 +8505,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8554,7 +8542,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8587,7 +8579,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8620,7 +8616,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8653,7 +8653,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8686,7 +8690,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8727,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8752,7 +8764,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8781,11 +8797,15 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8814,11 +8834,15 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8847,11 +8871,15 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +8908,15 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8913,11 +8945,15 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +8982,15 @@
         <v>-23018.50532704014</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8979,11 +9019,15 @@
         <v>-24294.86152704014</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +9056,15 @@
         <v>-24448.09782704014</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9049,7 +9097,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9082,7 +9134,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9115,7 +9171,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9148,7 +9208,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9181,7 +9245,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9282,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9247,7 +9319,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9280,7 +9356,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9393,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9346,7 +9430,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9379,7 +9467,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9412,7 +9504,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9445,7 +9541,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9478,7 +9578,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9511,7 +9615,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9544,7 +9652,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9577,7 +9689,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9726,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9643,7 +9763,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9676,7 +9800,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9709,7 +9837,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9742,7 +9874,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9775,7 +9911,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9808,7 +9948,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9841,7 +9985,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +10022,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9907,7 +10059,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9940,7 +10096,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9973,7 +10133,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10006,7 +10170,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10039,7 +10207,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +10244,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10105,7 +10281,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +10318,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10171,7 +10355,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10204,7 +10392,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10237,7 +10429,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10270,7 +10466,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10303,7 +10503,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10336,7 +10540,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10369,7 +10577,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10402,7 +10614,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10435,7 +10651,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10688,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10501,7 +10725,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10534,7 +10762,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10567,7 +10799,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10600,7 +10836,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10633,7 +10873,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10666,7 +10910,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10699,7 +10947,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10732,7 +10984,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10765,7 +11021,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10798,7 +11058,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10831,7 +11095,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10864,7 +11132,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10897,7 +11169,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10930,7 +11206,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10963,7 +11243,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10996,7 +11280,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11029,7 +11317,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11062,7 +11354,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11095,7 +11391,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11128,7 +11428,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11161,7 +11465,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11194,7 +11502,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11227,7 +11539,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11260,7 +11576,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11293,7 +11613,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11326,7 +11650,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11359,7 +11687,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11392,7 +11724,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11425,7 +11761,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11458,7 +11798,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11491,7 +11835,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11524,7 +11872,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11557,7 +11909,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11590,7 +11946,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +11983,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11656,7 +12020,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11689,7 +12057,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11722,7 +12094,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11755,7 +12131,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11788,7 +12168,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11821,7 +12205,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11854,7 +12242,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11887,7 +12279,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11920,7 +12316,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11953,7 +12353,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11986,7 +12390,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12019,7 +12427,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12052,7 +12464,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12081,11 +12497,17 @@
         <v>-24692.47484751932</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3039</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12114,11 +12536,17 @@
         <v>-24872.04434751932</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3038</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12147,11 +12575,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>3036</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12180,11 +12614,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3034</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12213,11 +12653,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>3034</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12246,11 +12692,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>3034</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12279,11 +12731,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3034</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12312,11 +12770,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3034</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12349,7 +12813,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12382,7 +12850,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12415,7 +12887,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12448,7 +12924,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12481,7 +12961,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12514,7 +12998,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12543,11 +13031,17 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3040</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12576,21 +13070,23 @@
         <v>-25618.32264751932</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>3040</v>
       </c>
-      <c r="J365" t="n">
-        <v>3040</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
       <c r="M365" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LINK.xlsx
+++ b/BackTest/2020-01-23 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-192.8148017202209</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-217.7070017202209</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3875.381201720221</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-5575.521501720221</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6506.157901720221</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6503.157901720221</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9906.289201720219</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-12074.54800172022</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-13074.00780172022</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-14124.00780172022</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-14977.18770172022</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-14976.18868921199</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-14890.86518921199</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-16024.34318921199</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-16627.20578921199</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-16557.19258921199</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-16553.99258921199</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-16603.99258921199</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-16653.99258921199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-16653.99258921199</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-15053.26188921199</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-15053.06188921199</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-17056.72070360047</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-17241.60640360047</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-17161.69120360047</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-17213.69120360047</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-17670.69120360047</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-17669.69120360047</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-17988.46660360047</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-17880.63540360047</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-18480.63540360047</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-18180.63540360047</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-17861.77730360047</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-17861.77730360047</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-17829.77730360047</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-17503.01760360047</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-19003.01760360047</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-19062.61640360047</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-19671.19330360047</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-18749.1444125372</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-18781.6425125372</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-18867.1724125372</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-21517.1556125372</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-21871.3636125372</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-18228.93481253719</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-18228.93481253719</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-17698.80361253719</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-17729.72861253719</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-18947.47386789684</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-17347.47386789684</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-17273.89371771728</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-18926.52001771728</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-19294.37981771728</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-19294.37981771728</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-19655.22221771728</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-20855.63691771728</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-19078.99762704015</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-18887.71192704015</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-18910.10372704015</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-18282.39252704015</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-18294.48662704015</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-19428.91582704015</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-19428.91582704015</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7348,11 +7348,17 @@
         <v>-23314.60982704014</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3038</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7391,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7428,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7465,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7498,17 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3038</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7541,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7578,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7615,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7652,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7689,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7726,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7763,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7800,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7837,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7874,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7911,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +7948,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +7985,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8022,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8059,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8096,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8133,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8170,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8207,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8244,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,14 +8277,16 @@
         <v>-20984.61692704014</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -8206,7 +8312,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,10 +8345,14 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3055</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
@@ -8272,11 +8382,19 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8423,19 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8464,19 @@
         <v>-22258.59042704014</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J241" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8505,19 @@
         <v>-21101.20702704014</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J242" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8549,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8624,19 @@
         <v>-19656.35272704014</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>3051</v>
+      </c>
+      <c r="J245" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8665,17 @@
         <v>-24973.11232704014</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8704,17 @@
         <v>-26715.53402704014</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8743,19 @@
         <v>-23975.46042704014</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3051</v>
+      </c>
+      <c r="J248" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8784,17 @@
         <v>-23967.23722704014</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8823,17 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,13 +8862,19 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3055</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L251" t="n">
-        <v>1</v>
+        <v>1.002855973813421</v>
       </c>
       <c r="M251" t="inlineStr"/>
     </row>
@@ -8701,7 +8901,7 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8934,7 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8967,7 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9000,7 @@
         <v>-23018.50532704014</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9033,7 @@
         <v>-24294.86152704014</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9066,7 @@
         <v>-24448.09782704014</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9099,7 @@
         <v>-24459.81462704013</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9031,7 +9231,7 @@
         <v>-23931.83792704013</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9264,7 @@
         <v>-23932.17762704013</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9297,7 @@
         <v>-23942.17762704013</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9330,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9363,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9396,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9429,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9462,7 @@
         <v>-25986.52242704013</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9495,7 @@
         <v>-25970.18789584118</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9528,7 @@
         <v>-25971.71339584118</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10450,7 +10650,7 @@
         <v>-27559.71654751932</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10615,11 +10815,17 @@
         <v>-27499.58764751932</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3060</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10858,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10895,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10932,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10965,17 @@
         <v>-27661.08044751932</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3053</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11008,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11041,17 @@
         <v>-27661.08044751932</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3053</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11080,17 @@
         <v>-27661.08044751932</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3053</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11119,17 @@
         <v>-26876.26294751932</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3053</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11162,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11195,17 @@
         <v>-26892.26294751932</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3060</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11234,17 @@
         <v>-26903.45954751932</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3051</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11273,17 @@
         <v>-26916.72764751932</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3050</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11312,17 @@
         <v>-26916.72764751932</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>3049</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11351,17 @@
         <v>-26939.60284751932</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3049</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11390,17 @@
         <v>-26255.18194751932</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3048</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11429,17 @@
         <v>-26255.18194751932</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3051</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11468,17 @@
         <v>-26254.18194751932</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>3051</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11507,17 @@
         <v>-26257.18194751932</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>3053</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11546,17 @@
         <v>-26857.18194751932</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3052</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11585,17 @@
         <v>-26856.18194751932</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>3043</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11624,17 @@
         <v>-26870.66734751932</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3050</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11663,17 @@
         <v>-25928.12594751932</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3046</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11702,17 @@
         <v>-25764.22514751932</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3051</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11741,17 @@
         <v>-25927.62964751932</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3060</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11780,17 @@
         <v>-25963.80004751932</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3059</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11819,17 @@
         <v>-23653.35894751932</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3049</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11858,17 @@
         <v>-24204.56554751932</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3053</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11897,17 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3043</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11936,17 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3052</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11975,17 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3052</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12014,17 @@
         <v>-24114.56554751932</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3052</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +12053,17 @@
         <v>-24427.79184751932</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3046</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +12092,17 @@
         <v>-24427.79184751932</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3045</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12131,17 @@
         <v>-24532.24934751932</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3045</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +12170,17 @@
         <v>-24496.96334751932</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3041</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12209,17 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>3048</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12248,17 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>3040</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12287,17 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>3040</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12326,17 @@
         <v>-24633.77864751932</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>3040</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12365,17 @@
         <v>-24692.47484751932</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3039</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12404,17 @@
         <v>-24872.04434751932</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3038</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12443,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>3036</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12482,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3034</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12521,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>3034</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12560,17 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>3034</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12138,10 +12604,12 @@
       <c r="I356" t="n">
         <v>3034</v>
       </c>
-      <c r="J356" t="n">
-        <v>3034</v>
-      </c>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12175,12 +12643,10 @@
       <c r="I357" t="n">
         <v>3034</v>
       </c>
-      <c r="J357" t="n">
-        <v>3034</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
@@ -12211,12 +12677,12 @@
         <v>-25465.42164751932</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
         <v>3034</v>
       </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,12 +12716,12 @@
         <v>-25469.42164751932</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3034</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>3045</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,9 +12760,7 @@
       <c r="I360" t="n">
         <v>3043</v>
       </c>
-      <c r="J360" t="n">
-        <v>3034</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12330,14 +12794,10 @@
         <v>-25472.42164751932</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3041</v>
-      </c>
-      <c r="J361" t="n">
-        <v>3034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12374,9 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3034</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12410,12 +12868,12 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3034</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,12 +12907,12 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3034</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12488,12 +12946,12 @@
         <v>-25618.32264751932</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3034</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
